--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H2">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I2">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J2">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>44.50625254299479</v>
+        <v>50.19976885019799</v>
       </c>
       <c r="R2">
-        <v>44.50625254299479</v>
+        <v>200.799075400792</v>
       </c>
       <c r="S2">
-        <v>0.0003426793785395798</v>
+        <v>0.0003340370690922721</v>
       </c>
       <c r="T2">
-        <v>0.0003426793785395798</v>
+        <v>0.0001584810410547281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H3">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I3">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J3">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>3199.639356613557</v>
+        <v>3473.248012297616</v>
       </c>
       <c r="R3">
-        <v>3199.639356613557</v>
+        <v>20839.48807378569</v>
       </c>
       <c r="S3">
-        <v>0.02463587391942066</v>
+        <v>0.02311153243993233</v>
       </c>
       <c r="T3">
-        <v>0.02463587391942066</v>
+        <v>0.01644760444433861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H4">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I4">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J4">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>4482.180121194466</v>
+        <v>4633.361784812798</v>
       </c>
       <c r="R4">
-        <v>4482.180121194466</v>
+        <v>27800.17070887679</v>
       </c>
       <c r="S4">
-        <v>0.03451089702395386</v>
+        <v>0.03083110990533778</v>
       </c>
       <c r="T4">
-        <v>0.03451089702395386</v>
+        <v>0.02194133606764893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H5">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I5">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J5">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>3399.45247938887</v>
+        <v>3570.472298412191</v>
       </c>
       <c r="R5">
-        <v>3399.45247938887</v>
+        <v>21422.83379047315</v>
       </c>
       <c r="S5">
-        <v>0.02617435071367671</v>
+        <v>0.02375847796024369</v>
       </c>
       <c r="T5">
-        <v>0.02617435071367671</v>
+        <v>0.01690801112843771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H6">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I6">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J6">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>120.6446848588128</v>
+        <v>155.4868310024994</v>
       </c>
       <c r="R6">
-        <v>120.6446848588128</v>
+        <v>932.9209860149962</v>
       </c>
       <c r="S6">
-        <v>0.0009289132036354443</v>
+        <v>0.001034633555096847</v>
       </c>
       <c r="T6">
-        <v>0.0009289132036354443</v>
+        <v>0.0007363096109399563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H7">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I7">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J7">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>728.9338036591247</v>
+        <v>744.9815228991685</v>
       </c>
       <c r="R7">
-        <v>728.9338036591247</v>
+        <v>2979.926091596674</v>
       </c>
       <c r="S7">
-        <v>0.00561248293356295</v>
+        <v>0.004957222914307387</v>
       </c>
       <c r="T7">
-        <v>0.00561248293356295</v>
+        <v>0.002351912170510549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H8">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I8">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J8">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>54.57167692615748</v>
+        <v>64.49989770056466</v>
       </c>
       <c r="R8">
-        <v>54.57167692615748</v>
+        <v>386.999386203388</v>
       </c>
       <c r="S8">
-        <v>0.0004201789022082428</v>
+        <v>0.0004291923504457137</v>
       </c>
       <c r="T8">
-        <v>0.0004201789022082428</v>
+        <v>0.0003054399801923183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H9">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I9">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J9">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>3923.261907541049</v>
+        <v>4462.652849067893</v>
       </c>
       <c r="R9">
-        <v>3923.261907541049</v>
+        <v>40163.87564161104</v>
       </c>
       <c r="S9">
-        <v>0.03020746244643737</v>
+        <v>0.02969518609791442</v>
       </c>
       <c r="T9">
-        <v>0.03020746244643737</v>
+        <v>0.03169941301657034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H10">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I10">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J10">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>5495.858930436267</v>
+        <v>5953.241777306559</v>
       </c>
       <c r="R10">
-        <v>5495.858930436267</v>
+        <v>53579.17599575903</v>
       </c>
       <c r="S10">
-        <v>0.04231579643789916</v>
+        <v>0.03961379664562557</v>
       </c>
       <c r="T10">
-        <v>0.04231579643789916</v>
+        <v>0.04228746359371385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H11">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I11">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J11">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>4168.264273695494</v>
+        <v>4587.572876630446</v>
       </c>
       <c r="R11">
-        <v>4168.264273695494</v>
+        <v>41288.15588967402</v>
       </c>
       <c r="S11">
-        <v>0.03209387736068849</v>
+        <v>0.03052642338911475</v>
       </c>
       <c r="T11">
-        <v>0.03209387736068849</v>
+        <v>0.03258675327844481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H12">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I12">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J12">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>147.9293894405741</v>
+        <v>199.7794994509549</v>
       </c>
       <c r="R12">
-        <v>147.9293894405741</v>
+        <v>1798.015495058594</v>
       </c>
       <c r="S12">
-        <v>0.001138993924331522</v>
+        <v>0.001329363859432492</v>
       </c>
       <c r="T12">
-        <v>0.001138993924331522</v>
+        <v>0.001419087049682175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H13">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I13">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J13">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>893.7876761341037</v>
+        <v>957.2002643916101</v>
       </c>
       <c r="R13">
-        <v>893.7876761341037</v>
+        <v>5743.201586349661</v>
       </c>
       <c r="S13">
-        <v>0.006881788241058688</v>
+        <v>0.006369359424858395</v>
       </c>
       <c r="T13">
-        <v>0.006881788241058688</v>
+        <v>0.004532832457396218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H14">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I14">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J14">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>139.7725895681358</v>
+        <v>193.449021104232</v>
       </c>
       <c r="R14">
-        <v>139.7725895681358</v>
+        <v>1160.694126625392</v>
       </c>
       <c r="S14">
-        <v>0.001076190004624765</v>
+        <v>0.001287239871985424</v>
       </c>
       <c r="T14">
-        <v>0.001076190004624765</v>
+        <v>0.0009160799827715493</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H15">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I15">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J15">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>10048.51797229989</v>
+        <v>13384.4526263898</v>
       </c>
       <c r="R15">
-        <v>10048.51797229989</v>
+        <v>120460.0736375082</v>
       </c>
       <c r="S15">
-        <v>0.07736935143360016</v>
+        <v>0.08906222935140025</v>
       </c>
       <c r="T15">
-        <v>0.07736935143360016</v>
+        <v>0.09507333555942366</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H16">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I16">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J16">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>14076.35751504715</v>
+        <v>17855.04838415721</v>
       </c>
       <c r="R16">
-        <v>14076.35751504715</v>
+        <v>160695.4354574148</v>
       </c>
       <c r="S16">
-        <v>0.1083820175760123</v>
+        <v>0.1188102687990974</v>
       </c>
       <c r="T16">
-        <v>0.1083820175760123</v>
+        <v>0.1268291691742199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H17">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I17">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J17">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>10676.03424258172</v>
+        <v>13759.11457020367</v>
       </c>
       <c r="R17">
-        <v>10676.03424258172</v>
+        <v>123832.031131833</v>
       </c>
       <c r="S17">
-        <v>0.08220096212281554</v>
+        <v>0.09155528819367233</v>
       </c>
       <c r="T17">
-        <v>0.08220096212281554</v>
+        <v>0.09773465923846082</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H18">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I18">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J18">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>378.8865396846833</v>
+        <v>599.1815488591441</v>
       </c>
       <c r="R18">
-        <v>378.8865396846833</v>
+        <v>5392.633939732296</v>
       </c>
       <c r="S18">
-        <v>0.002917266598232054</v>
+        <v>0.003987047211957175</v>
       </c>
       <c r="T18">
-        <v>0.002917266598232054</v>
+        <v>0.004256146294946853</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>76.4078621360738</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H19">
-        <v>76.4078621360738</v>
+        <v>287.436276</v>
       </c>
       <c r="I19">
-        <v>0.2895718790979137</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J19">
-        <v>0.2895718790979137</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>2289.228131772318</v>
+        <v>2870.848803619854</v>
       </c>
       <c r="R19">
-        <v>2289.228131772318</v>
+        <v>17225.09282171912</v>
       </c>
       <c r="S19">
-        <v>0.0176260913626289</v>
+        <v>0.01910307441912553</v>
       </c>
       <c r="T19">
-        <v>0.0176260913626289</v>
+        <v>0.01359493631731934</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>79.33460245100019</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H20">
-        <v>79.33460245100019</v>
+        <v>266.079544</v>
       </c>
       <c r="I20">
-        <v>0.3006636917587043</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J20">
-        <v>0.3006636917587043</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>145.1264636509128</v>
+        <v>179.0756129983413</v>
       </c>
       <c r="R20">
-        <v>145.1264636509128</v>
+        <v>1074.453677990048</v>
       </c>
       <c r="S20">
-        <v>0.001117412577603535</v>
+        <v>0.001191596979069198</v>
       </c>
       <c r="T20">
-        <v>0.001117412577603535</v>
+        <v>0.0008480145494348866</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>79.33460245100019</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H21">
-        <v>79.33460245100019</v>
+        <v>266.079544</v>
       </c>
       <c r="I21">
-        <v>0.3006636917587043</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J21">
-        <v>0.3006636917587043</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>10433.41818848992</v>
+        <v>12389.97770594342</v>
       </c>
       <c r="R21">
-        <v>10433.41818848992</v>
+        <v>111509.7993534908</v>
       </c>
       <c r="S21">
-        <v>0.08033292080525933</v>
+        <v>0.0824448385681284</v>
       </c>
       <c r="T21">
-        <v>0.08033292080525933</v>
+        <v>0.08800931505322743</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>79.33460245100019</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H22">
-        <v>79.33460245100019</v>
+        <v>266.079544</v>
       </c>
       <c r="I22">
-        <v>0.3006636917587043</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J22">
-        <v>0.3006636917587043</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>14615.54081209107</v>
+        <v>16528.40482860447</v>
       </c>
       <c r="R22">
-        <v>14615.54081209107</v>
+        <v>148755.6434574402</v>
       </c>
       <c r="S22">
-        <v>0.1125335016168544</v>
+        <v>0.1099825762583331</v>
       </c>
       <c r="T22">
-        <v>0.1125335016168544</v>
+        <v>0.1174056662902747</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>79.33460245100019</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H23">
-        <v>79.33460245100019</v>
+        <v>266.079544</v>
       </c>
       <c r="I23">
-        <v>0.3006636917587043</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J23">
-        <v>0.3006636917587043</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>11084.97095338319</v>
+        <v>12736.80198488081</v>
       </c>
       <c r="R23">
-        <v>11084.97095338319</v>
+        <v>114631.2178639273</v>
       </c>
       <c r="S23">
-        <v>0.08534960236800566</v>
+        <v>0.08475266125894604</v>
       </c>
       <c r="T23">
-        <v>0.08534960236800566</v>
+        <v>0.09047290037658659</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>79.33460245100019</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H24">
-        <v>79.33460245100019</v>
+        <v>266.079544</v>
       </c>
       <c r="I24">
-        <v>0.3006636917587043</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J24">
-        <v>0.3006636917587043</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>393.3994769594273</v>
+        <v>554.6619080663805</v>
       </c>
       <c r="R24">
-        <v>393.3994769594273</v>
+        <v>4991.957172597425</v>
       </c>
       <c r="S24">
-        <v>0.003029010095874071</v>
+        <v>0.003690806598343338</v>
       </c>
       <c r="T24">
-        <v>0.003029010095874071</v>
+        <v>0.003939911416597772</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>79.33460245100019</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H25">
-        <v>79.33460245100019</v>
+        <v>266.079544</v>
       </c>
       <c r="I25">
-        <v>0.3006636917587043</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J25">
-        <v>0.3006636917587043</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>2376.915132507789</v>
+        <v>2657.542573228009</v>
       </c>
       <c r="R25">
-        <v>2376.915132507789</v>
+        <v>15945.25543936805</v>
       </c>
       <c r="S25">
-        <v>0.01830124429510738</v>
+        <v>0.01768370158830957</v>
       </c>
       <c r="T25">
-        <v>0.01830124429510738</v>
+        <v>0.01258482229995691</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.5475757513817</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H26">
-        <v>40.5475757513817</v>
+        <v>123.442651</v>
       </c>
       <c r="I26">
-        <v>0.1536679259823082</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J26">
-        <v>0.1536679259823082</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>74.17351441384001</v>
+        <v>83.07879691031533</v>
       </c>
       <c r="R26">
-        <v>74.17351441384001</v>
+        <v>498.472781461892</v>
       </c>
       <c r="S26">
-        <v>0.0005711047857573882</v>
+        <v>0.0005528192352129604</v>
       </c>
       <c r="T26">
-        <v>0.0005711047857573882</v>
+        <v>0.0003934205632463538</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.5475757513817</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H27">
-        <v>40.5475757513817</v>
+        <v>123.442651</v>
       </c>
       <c r="I27">
-        <v>0.1536679259823082</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J27">
-        <v>0.1536679259823082</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>5332.475379894022</v>
+        <v>5748.099500097438</v>
       </c>
       <c r="R27">
-        <v>5332.475379894022</v>
+        <v>51732.89550087695</v>
       </c>
       <c r="S27">
-        <v>0.04105781198932489</v>
+        <v>0.0382487480289609</v>
       </c>
       <c r="T27">
-        <v>0.04105781198932489</v>
+        <v>0.04083028330379505</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.5475757513817</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H28">
-        <v>40.5475757513817</v>
+        <v>123.442651</v>
       </c>
       <c r="I28">
-        <v>0.1536679259823082</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J28">
-        <v>0.1536679259823082</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>7469.940352845396</v>
+        <v>7668.045721110136</v>
       </c>
       <c r="R28">
-        <v>7469.940352845396</v>
+        <v>69012.41148999122</v>
       </c>
       <c r="S28">
-        <v>0.05751539101990057</v>
+        <v>0.05102436877724918</v>
       </c>
       <c r="T28">
-        <v>0.05751539101990057</v>
+        <v>0.05446817320647859</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.5475757513817</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H29">
-        <v>40.5475757513817</v>
+        <v>123.442651</v>
       </c>
       <c r="I29">
-        <v>0.1536679259823082</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J29">
-        <v>0.1536679259823082</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>5665.481209309372</v>
+        <v>5909.0021676967</v>
       </c>
       <c r="R29">
-        <v>5665.481209309372</v>
+        <v>53181.01950927031</v>
       </c>
       <c r="S29">
-        <v>0.04362181646406405</v>
+        <v>0.03931941940305376</v>
       </c>
       <c r="T29">
-        <v>0.04362181646406405</v>
+        <v>0.04197321785151867</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.5475757513817</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H30">
-        <v>40.5475757513817</v>
+        <v>123.442651</v>
       </c>
       <c r="I30">
-        <v>0.1536679259823082</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J30">
-        <v>0.1536679259823082</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>201.0647888784525</v>
+        <v>257.3250664486719</v>
       </c>
       <c r="R30">
-        <v>201.0647888784525</v>
+        <v>2315.925598038047</v>
       </c>
       <c r="S30">
-        <v>0.001548114095485777</v>
+        <v>0.001712281011830785</v>
       </c>
       <c r="T30">
-        <v>0.001548114095485777</v>
+        <v>0.001827848554829132</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.5475757513817</v>
+        <v>41.14755033333334</v>
       </c>
       <c r="H31">
-        <v>40.5475757513817</v>
+        <v>123.442651</v>
       </c>
       <c r="I31">
-        <v>0.1536679259823082</v>
+        <v>0.1390616606016355</v>
       </c>
       <c r="J31">
-        <v>0.1536679259823082</v>
+        <v>0.1453314375020561</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>1214.831150751547</v>
+        <v>1232.91740301775</v>
       </c>
       <c r="R31">
-        <v>1214.831150751547</v>
+        <v>7397.5044181065</v>
       </c>
       <c r="S31">
-        <v>0.009353687627775505</v>
+        <v>0.008204024145327922</v>
       </c>
       <c r="T31">
-        <v>0.009353687627775505</v>
+        <v>0.005838494022188336</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>13.4131007904634</v>
+        <v>13.4326165</v>
       </c>
       <c r="H32">
-        <v>13.4131007904634</v>
+        <v>26.865233</v>
       </c>
       <c r="I32">
-        <v>0.05083320867566127</v>
+        <v>0.04539667468859516</v>
       </c>
       <c r="J32">
-        <v>0.05083320867566127</v>
+        <v>0.03162896210579336</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>24.53653039372702</v>
+        <v>27.121070613859</v>
       </c>
       <c r="R32">
-        <v>24.53653039372702</v>
+        <v>108.484282455436</v>
       </c>
       <c r="S32">
-        <v>0.0001889209382146311</v>
+        <v>0.0001804678217848463</v>
       </c>
       <c r="T32">
-        <v>0.0001889209382146311</v>
+        <v>8.562142025453203E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>13.4131007904634</v>
+        <v>13.4326165</v>
       </c>
       <c r="H33">
-        <v>13.4131007904634</v>
+        <v>26.865233</v>
       </c>
       <c r="I33">
-        <v>0.05083320867566127</v>
+        <v>0.04539667468859516</v>
       </c>
       <c r="J33">
-        <v>0.05083320867566127</v>
+        <v>0.03162896210579336</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>1763.977954483403</v>
+        <v>1876.466899321141</v>
       </c>
       <c r="R33">
-        <v>1763.977954483403</v>
+        <v>11258.80139592685</v>
       </c>
       <c r="S33">
-        <v>0.0135818864690066</v>
+        <v>0.01248630257976627</v>
       </c>
       <c r="T33">
-        <v>0.0135818864690066</v>
+        <v>0.008886029792186362</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>13.4131007904634</v>
+        <v>13.4326165</v>
       </c>
       <c r="H34">
-        <v>13.4131007904634</v>
+        <v>26.865233</v>
       </c>
       <c r="I34">
-        <v>0.05083320867566127</v>
+        <v>0.04539667468859516</v>
       </c>
       <c r="J34">
-        <v>0.05083320867566127</v>
+        <v>0.03162896210579336</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>2471.049402948604</v>
+        <v>2503.233282217952</v>
       </c>
       <c r="R34">
-        <v>2471.049402948604</v>
+        <v>15019.39969330771</v>
       </c>
       <c r="S34">
-        <v>0.01902603848582863</v>
+        <v>0.01665690356745568</v>
       </c>
       <c r="T34">
-        <v>0.01902603848582863</v>
+        <v>0.01185408894269781</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>13.4131007904634</v>
+        <v>13.4326165</v>
       </c>
       <c r="H35">
-        <v>13.4131007904634</v>
+        <v>26.865233</v>
       </c>
       <c r="I35">
-        <v>0.05083320867566127</v>
+        <v>0.04539667468859516</v>
       </c>
       <c r="J35">
-        <v>0.05083320867566127</v>
+        <v>0.03162896210579336</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>1874.135976781635</v>
+        <v>1928.993570050722</v>
       </c>
       <c r="R35">
-        <v>1874.135976781635</v>
+        <v>11573.96142030433</v>
       </c>
       <c r="S35">
-        <v>0.01443005679262216</v>
+        <v>0.01283582321584814</v>
       </c>
       <c r="T35">
-        <v>0.01443005679262216</v>
+        <v>0.009134770423399351</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>13.4131007904634</v>
+        <v>13.4326165</v>
       </c>
       <c r="H36">
-        <v>13.4131007904634</v>
+        <v>26.865233</v>
       </c>
       <c r="I36">
-        <v>0.05083320867566127</v>
+        <v>0.04539667468859516</v>
       </c>
       <c r="J36">
-        <v>0.05083320867566127</v>
+        <v>0.03162896210579336</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>66.51204735829437</v>
+        <v>84.00375977283635</v>
       </c>
       <c r="R36">
-        <v>66.51204735829437</v>
+        <v>504.0225586370181</v>
       </c>
       <c r="S36">
-        <v>0.0005121147198838444</v>
+        <v>0.0005589740819521503</v>
       </c>
       <c r="T36">
-        <v>0.0005121147198838444</v>
+        <v>0.0003978007351300151</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>13.4131007904634</v>
+        <v>13.4326165</v>
       </c>
       <c r="H37">
-        <v>13.4131007904634</v>
+        <v>26.865233</v>
       </c>
       <c r="I37">
-        <v>0.05083320867566127</v>
+        <v>0.04539667468859516</v>
       </c>
       <c r="J37">
-        <v>0.05083320867566127</v>
+        <v>0.03162896210579336</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>401.8650280928293</v>
+        <v>402.4858470735542</v>
       </c>
       <c r="R37">
-        <v>401.8650280928293</v>
+        <v>1609.943388294217</v>
       </c>
       <c r="S37">
-        <v>0.003094191270105417</v>
+        <v>0.002678203421788072</v>
       </c>
       <c r="T37">
-        <v>0.003094191270105417</v>
+        <v>0.001270650792125299</v>
       </c>
     </row>
   </sheetData>
